--- a/data/processed/POLON_VS_SAP.xlsx
+++ b/data/processed/POLON_VS_SAP.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teachers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="not_teachers" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="teachers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="not_teachers" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'teachers'!$A$1:$R$17</definedName>
@@ -20,18 +21,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -67,19 +60,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left style="thin">
@@ -104,14 +88,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -476,7 +460,7 @@
   </sheetPr>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -773,112 +757,110 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 1</t>
+          <t>Operator HR 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ABC002</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 12</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Badawczo-dydaktyczni</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>profesor</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Mężczyzna</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>profesor</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>Tak</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t>polskie</t>
-        </is>
-      </c>
-      <c r="R4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
+          <t>ABC006</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski alojzy 2</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski alojzy 2</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Dydaktyczni</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Dydaktyczni</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>starszy asystent</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>starszy asystent</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>Kobieta</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>Kobieta</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>magister</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>magister</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>Tak</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>Tak</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>polskie</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>polskie</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 2</t>
+          <t>Operator HR 3</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ABC006</t>
+          <t>ABC010</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Kowalski alojzy 2</t>
+          <t>Kowalski alojzy 3</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Kowalski alojzy 2</t>
+          <t>Kowalski alojzy 3</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -909,22 +891,22 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>Kobieta</t>
+          <t>Mężczyzna</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>Kobieta</t>
+          <t>Mężczyzna</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
@@ -956,44 +938,44 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ABC010</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 3</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 3</t>
+          <t>ABC011</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski krystian 3</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski krystan 3</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>starszy asystent</t>
+          <t>profesor uczelni</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>starszy asystent</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
+          <t>profesor uczelni</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.95</v>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
@@ -1007,12 +989,12 @@
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>dr habilitowany</t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>dr habilitowany</t>
         </is>
       </c>
       <c r="O6" s="3" t="inlineStr">
@@ -1044,44 +1026,44 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ABC011</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski krystian 3</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski krystan 3</t>
+          <t>ABC012</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski mateusz 3</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski mateusz 3</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
+          <t>Dydaktyczni</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>profesor uczelni</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>profesor uczelni</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.95</v>
+          <t>Dydaktyczni</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>starszy asystent</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>starsz asystent</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
@@ -1095,12 +1077,12 @@
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>dr habilitowany</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="N7" s="3" t="inlineStr">
         <is>
-          <t>dr habilitowany</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="O7" s="3" t="inlineStr">
@@ -1127,22 +1109,22 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 3</t>
+          <t>Operator HR 1</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ABC012</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski mateusz 3</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski mateusz 3</t>
+          <t>ABC013</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski waery 4</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski walery 4</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -1155,14 +1137,14 @@
           <t>Dydaktyczni</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>starszy asystent</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>starsz asystent</t>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>starszy asystent</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
@@ -1183,12 +1165,12 @@
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>magister</t>
         </is>
       </c>
       <c r="N8" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>magister</t>
         </is>
       </c>
       <c r="O8" s="3" t="inlineStr">
@@ -1220,17 +1202,17 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ABC013</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski waery 4</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski walery 4</t>
+          <t>ABC015</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski krystian 4</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski krystian 4</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -1245,48 +1227,48 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>starszy asystent</t>
+          <t>asystent</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>starszy asystent</t>
+          <t>asystent</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>Mężczyzna</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>Męzczyzna</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>Mężczyzna</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="N9" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="O9" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
+          <t>Nie</t>
         </is>
       </c>
       <c r="P9" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
+          <t>Nie</t>
         </is>
       </c>
       <c r="Q9" s="3" t="inlineStr">
@@ -1308,73 +1290,73 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ABC015</t>
+          <t>ABC016</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Kowalski krystian 4</t>
+          <t>Kowalski mateusz 4</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>Kowalski krystian 4</t>
+          <t>Kowalski mateusz 4</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>asystent</t>
+          <t>profesor uczelni</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>asystent</t>
+          <t>profesor uczelni</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>Męzczyzna</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>Mężczyzna</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>dr habilitowany</t>
         </is>
       </c>
       <c r="N10" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>dr habilitowany</t>
         </is>
       </c>
       <c r="O10" s="3" t="inlineStr">
         <is>
-          <t>Nie</t>
+          <t>Tak</t>
         </is>
       </c>
       <c r="P10" s="3" t="inlineStr">
         <is>
-          <t>Nie</t>
+          <t>Tak</t>
         </is>
       </c>
       <c r="Q10" s="3" t="inlineStr">
@@ -1391,49 +1373,49 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 1</t>
+          <t>Operator HR 2</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ABC016</t>
+          <t>ABC017</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Kowalski mateusz 4</t>
+          <t>Kowalski walery 5</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Kowalski mateusz 4</t>
+          <t>Kowalski walery 5</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
+          <t>Dydaktyczni</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
+          <t>Dydaktyczni</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>profesor uczelni</t>
+          <t>lektor</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>profesor uczelni</t>
+          <t>lektor</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
@@ -1447,30 +1429,30 @@
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>dr habilitowany</t>
+          <t>magister</t>
         </is>
       </c>
       <c r="N11" s="3" t="inlineStr">
         <is>
-          <t>dr habilitowany</t>
+          <t>magister</t>
         </is>
       </c>
       <c r="O11" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
+          <t>Nie</t>
         </is>
       </c>
       <c r="P11" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <is>
-          <t>polskie</t>
-        </is>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>polske</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>polskie</t>
         </is>
@@ -1484,44 +1466,44 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ABC017</t>
+          <t>ABC018</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Kowalski walery 5</t>
+          <t>Kowalski alojzy 5</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Kowalski walery 5</t>
+          <t>Kowalski alojzy 5</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>lektor</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>lektor</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>0.5</v>
+          <t>Badawczo-dydaktyczni</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>adiukt</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>adiunkt</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
@@ -1535,30 +1517,30 @@
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>doktor</t>
         </is>
       </c>
       <c r="N12" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>doktor</t>
         </is>
       </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
-          <t>Nie</t>
+          <t>Tak</t>
         </is>
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>Nie</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="inlineStr">
-        <is>
-          <t>polske</t>
-        </is>
-      </c>
-      <c r="R12" s="4" t="inlineStr">
+          <t>Tak</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>polskie</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>polskie</t>
         </is>
@@ -1572,17 +1554,17 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ABC018</t>
+          <t>ABC020</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Kowalski alojzy 5</t>
+          <t>Kowalski mateusz 5</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Kowalski alojzy 5</t>
+          <t>Kowalski mateusz 5</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1595,20 +1577,20 @@
           <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>adiukt</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>adiunkt</t>
         </is>
       </c>
-      <c r="I13" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="4" t="n">
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>adiunkt</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="3" t="inlineStr">
@@ -1655,78 +1637,78 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 2</t>
+          <t>Operator HR 3</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ABC020</t>
+          <t>ABC021</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Kowalski mateusz 5</t>
+          <t>Kowalski walery 6</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Kowalski mateusz 5</t>
+          <t>Kowalski walery 6</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
+          <t>Dydaktyczni</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
+          <t>Dydaktyczni</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>adiunkt</t>
+          <t>lektor</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>adiunkt</t>
+          <t>lektor</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>Mężczyzna</t>
+          <t>Kobieta</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>Mężczyzna</t>
+          <t>Kobieta</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>doktor</t>
+          <t>licencjat</t>
         </is>
       </c>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t>doktor</t>
+          <t>licencjat</t>
         </is>
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
+          <t>Nie</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
+          <t>Nie</t>
         </is>
       </c>
       <c r="Q14" s="3" t="inlineStr">
@@ -1748,44 +1730,44 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ABC021</t>
+          <t>ABC022</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Kowalski walery 6</t>
+          <t>Kowalski alojzy 6</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Kowalski walery 6</t>
+          <t>Kowalski alojzy 6</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>lektor</t>
+          <t>asystent</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>lektor</t>
+          <t>asystent</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
@@ -1799,12 +1781,12 @@
       </c>
       <c r="M15" s="3" t="inlineStr">
         <is>
-          <t>licencjat</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>licencjat</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="O15" s="3" t="inlineStr">
@@ -1831,86 +1813,88 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 3</t>
+          <t>no data</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ABC022</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 6</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 6</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski alojzy 66</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>Badawczo-dydaktyczni</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>asystent</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>asystent</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="J16" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>Kobieta</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>Kobieta</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>mgr inżynier</t>
         </is>
       </c>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>mgr inżynier</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>Nie</t>
         </is>
       </c>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>Nie</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>polskie</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
+      <c r="Q16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="R16" s="4" t="inlineStr">
         <is>
           <t>polskie</t>
         </is>
@@ -1919,96 +1903,96 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
+          <t>Operator HR 1</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ABC002</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski alojzy 12</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Badawczo-dydaktyczni</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>profesor</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 66</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="I17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>Badawczo-dydaktyczni</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
-        <is>
-          <t>asystent</t>
-        </is>
-      </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>profesor</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="J17" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>Tak</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
-        <is>
-          <t>Kobieta</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>polskie</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
-        </is>
-      </c>
-      <c r="N17" s="4" t="inlineStr">
-        <is>
-          <t>mgr inżynier</t>
-        </is>
-      </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>Nie</t>
-        </is>
-      </c>
-      <c r="Q17" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="R17" s="4" t="inlineStr">
-        <is>
-          <t>polskie</t>
         </is>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R17"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2660,6 +2644,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R9"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/processed/POLON_VS_SAP.xlsx
+++ b/data/processed/POLON_VS_SAP.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teachers" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,18 +21,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -67,19 +60,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left style="thin">
@@ -104,14 +88,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -476,7 +460,7 @@
   </sheetPr>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -773,112 +757,110 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 1</t>
+          <t>Operator HR 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ABC002</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 12</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Badawczo-dydaktyczni</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>profesor</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Mężczyzna</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>profesor</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>Tak</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t>polskie</t>
-        </is>
-      </c>
-      <c r="R4" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
+          <t>ABC006</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski alojzy 2</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski alojzy 2</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Dydaktyczni</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Dydaktyczni</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>starszy asystent</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>starszy asystent</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>Kobieta</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>Kobieta</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>magister</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>magister</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>Tak</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>Tak</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>polskie</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>polskie</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 2</t>
+          <t>Operator HR 3</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ABC006</t>
+          <t>ABC010</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Kowalski alojzy 2</t>
+          <t>Kowalski alojzy 3</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Kowalski alojzy 2</t>
+          <t>Kowalski alojzy 3</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -909,22 +891,22 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>Kobieta</t>
+          <t>Mężczyzna</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>Kobieta</t>
+          <t>Mężczyzna</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
@@ -956,44 +938,44 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ABC010</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 3</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 3</t>
+          <t>ABC011</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski krystian 3</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski krystan 3</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>starszy asystent</t>
+          <t>profesor uczelni</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>starszy asystent</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
+          <t>profesor uczelni</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.95</v>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
@@ -1007,12 +989,12 @@
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>dr habilitowany</t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>dr habilitowany</t>
         </is>
       </c>
       <c r="O6" s="3" t="inlineStr">
@@ -1044,44 +1026,44 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ABC011</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski krystian 3</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski krystan 3</t>
+          <t>ABC012</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski mateusz 3</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski mateusz 3</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
+          <t>Dydaktyczni</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>profesor uczelni</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>profesor uczelni</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.95</v>
+          <t>Dydaktyczni</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>starszy asystent</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>starsz asystent</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
@@ -1095,12 +1077,12 @@
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>dr habilitowany</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="N7" s="3" t="inlineStr">
         <is>
-          <t>dr habilitowany</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="O7" s="3" t="inlineStr">
@@ -1127,22 +1109,22 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 3</t>
+          <t>Operator HR 1</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ABC012</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski mateusz 3</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski mateusz 3</t>
+          <t>ABC013</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski waery 4</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski walery 4</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -1155,14 +1137,14 @@
           <t>Dydaktyczni</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>starszy asystent</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>starsz asystent</t>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>starszy asystent</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
@@ -1183,12 +1165,12 @@
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>magister</t>
         </is>
       </c>
       <c r="N8" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>magister</t>
         </is>
       </c>
       <c r="O8" s="3" t="inlineStr">
@@ -1220,17 +1202,17 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ABC013</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski waery 4</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski walery 4</t>
+          <t>ABC015</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski krystian 4</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Kowalski krystian 4</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -1245,48 +1227,48 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>starszy asystent</t>
+          <t>asystent</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>starszy asystent</t>
+          <t>asystent</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>Mężczyzna</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>Męzczyzna</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>Mężczyzna</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="N9" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="O9" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
+          <t>Nie</t>
         </is>
       </c>
       <c r="P9" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
+          <t>Nie</t>
         </is>
       </c>
       <c r="Q9" s="3" t="inlineStr">
@@ -1308,73 +1290,73 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ABC015</t>
+          <t>ABC016</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Kowalski krystian 4</t>
+          <t>Kowalski mateusz 4</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>Kowalski krystian 4</t>
+          <t>Kowalski mateusz 4</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>asystent</t>
+          <t>profesor uczelni</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>asystent</t>
+          <t>profesor uczelni</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>Męzczyzna</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>Mężczyzna</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>dr habilitowany</t>
         </is>
       </c>
       <c r="N10" s="3" t="inlineStr">
         <is>
-          <t>mgr inżynier</t>
+          <t>dr habilitowany</t>
         </is>
       </c>
       <c r="O10" s="3" t="inlineStr">
         <is>
-          <t>Nie</t>
+          <t>Tak</t>
         </is>
       </c>
       <c r="P10" s="3" t="inlineStr">
         <is>
-          <t>Nie</t>
+          <t>Tak</t>
         </is>
       </c>
       <c r="Q10" s="3" t="inlineStr">
@@ -1391,49 +1373,49 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 1</t>
+          <t>Operator HR 2</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ABC016</t>
+          <t>ABC017</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Kowalski mateusz 4</t>
+          <t>Kowalski walery 5</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Kowalski mateusz 4</t>
+          <t>Kowalski walery 5</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
+          <t>Dydaktyczni</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
+          <t>Dydaktyczni</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>profesor uczelni</t>
+          <t>lektor</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>profesor uczelni</t>
+          <t>lektor</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
@@ -1447,30 +1429,30 @@
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>dr habilitowany</t>
+          <t>magister</t>
         </is>
       </c>
       <c r="N11" s="3" t="inlineStr">
         <is>
-          <t>dr habilitowany</t>
+          <t>magister</t>
         </is>
       </c>
       <c r="O11" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
+          <t>Nie</t>
         </is>
       </c>
       <c r="P11" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <is>
-          <t>polskie</t>
-        </is>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>polske</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>polskie</t>
         </is>
@@ -1484,44 +1466,44 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ABC017</t>
+          <t>ABC018</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Kowalski walery 5</t>
+          <t>Kowalski alojzy 5</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Kowalski walery 5</t>
+          <t>Kowalski alojzy 5</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>lektor</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>lektor</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>0.5</v>
+          <t>Badawczo-dydaktyczni</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>adiukt</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>adiunkt</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
@@ -1535,30 +1517,30 @@
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>doktor</t>
         </is>
       </c>
       <c r="N12" s="3" t="inlineStr">
         <is>
-          <t>magister</t>
+          <t>doktor</t>
         </is>
       </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
-          <t>Nie</t>
+          <t>Tak</t>
         </is>
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>Nie</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="inlineStr">
-        <is>
-          <t>polske</t>
-        </is>
-      </c>
-      <c r="R12" s="4" t="inlineStr">
+          <t>Tak</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>polskie</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>polskie</t>
         </is>
@@ -1572,17 +1554,17 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ABC018</t>
+          <t>ABC020</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Kowalski alojzy 5</t>
+          <t>Kowalski mateusz 5</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Kowalski alojzy 5</t>
+          <t>Kowalski mateusz 5</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1595,20 +1577,20 @@
           <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>adiukt</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>adiunkt</t>
         </is>
       </c>
-      <c r="I13" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="4" t="n">
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>adiunkt</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="3" t="inlineStr">
@@ -1655,78 +1637,78 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 2</t>
+          <t>Operator HR 3</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ABC020</t>
+          <t>ABC021</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Kowalski mateusz 5</t>
+          <t>Kowalski walery 6</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Kowalski mateusz 5</t>
+          <t>Kowalski walery 6</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
+          <t>Dydaktyczni</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Badawczo-dydaktyczni</t>
+          <t>Dydaktyczni</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>adiunkt</t>
+          <t>lektor</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>adiunkt</t>
+          <t>lektor</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>Mężczyzna</t>
+          <t>Kobieta</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>Mężczyzna</t>
+          <t>Kobieta</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>doktor</t>
+          <t>licencjat</t>
         </is>
       </c>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t>doktor</t>
+          <t>licencjat</t>
         </is>
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
+          <t>Nie</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>Tak</t>
+          <t>Nie</t>
         </is>
       </c>
       <c r="Q14" s="3" t="inlineStr">
@@ -1748,44 +1730,44 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ABC021</t>
+          <t>ABC022</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Kowalski walery 6</t>
+          <t>Kowalski alojzy 6</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Kowalski walery 6</t>
+          <t>Kowalski alojzy 6</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Dydaktyczni</t>
+          <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>lektor</t>
+          <t>asystent</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>lektor</t>
+          <t>asystent</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
@@ -1799,12 +1781,12 @@
       </c>
       <c r="M15" s="3" t="inlineStr">
         <is>
-          <t>licencjat</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>licencjat</t>
+          <t>mgr inżynier</t>
         </is>
       </c>
       <c r="O15" s="3" t="inlineStr">
@@ -1831,86 +1813,88 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Operator HR 3</t>
+          <t>no data</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ABC022</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 6</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 6</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski alojzy 66</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Badawczo-dydaktyczni</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>Badawczo-dydaktyczni</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>asystent</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>asystent</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="J16" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>Kobieta</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>Kobieta</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>mgr inżynier</t>
         </is>
       </c>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>mgr inżynier</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>Nie</t>
         </is>
       </c>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>Nie</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>polskie</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
+      <c r="Q16" s="4" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="R16" s="4" t="inlineStr">
         <is>
           <t>polskie</t>
         </is>
@@ -1919,96 +1903,96 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
+          <t>Operator HR 1</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ABC002</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Kowalski alojzy 12</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Badawczo-dydaktyczni</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>profesor</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Kowalski alojzy 66</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="I17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>Badawczo-dydaktyczni</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
-        <is>
-          <t>asystent</t>
-        </is>
-      </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>profesor</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="J17" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>Tak</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
-        <is>
-          <t>Kobieta</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>polskie</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
         <is>
           <t>no data</t>
-        </is>
-      </c>
-      <c r="N17" s="4" t="inlineStr">
-        <is>
-          <t>mgr inżynier</t>
-        </is>
-      </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>Nie</t>
-        </is>
-      </c>
-      <c r="Q17" s="4" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="R17" s="4" t="inlineStr">
-        <is>
-          <t>polskie</t>
         </is>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R17"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2660,6 +2644,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R9"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/processed/POLON_VS_SAP.xlsx
+++ b/data/processed/POLON_VS_SAP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="teachers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="not_teachers" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teachers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="not_teachers" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'teachers'!$A$1:$R$17</definedName>
